--- a/2018年度计划（7-12月）.xlsx
+++ b/2018年度计划（7-12月）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="15">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>Done</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -604,9 +600,7 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="7"/>
@@ -1463,7 +1457,8 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1907,7 +1902,8 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2364,7 +2360,8 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2808,7 +2805,8 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
